--- a/Assets/StreamingAssets/CurlingArena_data/xlsx/AffiliationDB/AffiliationDB_1.xlsx
+++ b/Assets/StreamingAssets/CurlingArena_data/xlsx/AffiliationDB/AffiliationDB_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\902_j\Desktop\project\컬링\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\all\github\CurlingArena\CurlingArena\Assets\StreamingAssets\CurlingArena_data\xlsx\AffiliationDB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FB2A92-97FF-41A6-B9BB-98260BB8D3E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DEED0-A8C7-45C0-BE09-AD074B95E5ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="825" yWindow="975" windowWidth="23685" windowHeight="12615" xr2:uid="{4E7F9FC0-B342-4892-9E20-8522922FFA0A}"/>
+    <workbookView xWindow="29700" yWindow="375" windowWidth="25425" windowHeight="13830" xr2:uid="{4E7F9FC0-B342-4892-9E20-8522922FFA0A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,15 +43,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">affiliation </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>교단</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>천사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>affiliation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -419,17 +419,20 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -445,7 +448,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -453,7 +456,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
